--- a/src/test/resources/testdata/CreateOffer.xlsx
+++ b/src/test/resources/testdata/CreateOffer.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helius\Desktop\HAPProject\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA318C96-48D1-4D13-9831-47003C61BA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89865F1-9F48-4D4D-9765-D0A5AA018FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E497BB42-177B-47EB-8FAC-2B2C19E1E448}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{E497BB42-177B-47EB-8FAC-2B2C19E1E448}"/>
   </bookViews>
   <sheets>
     <sheet name="createoffer" sheetId="1" r:id="rId1"/>
+    <sheet name="employeemaster" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Female</t>
   </si>
@@ -128,6 +129,36 @@
   </si>
   <si>
     <t>OfferTesting</t>
+  </si>
+  <si>
+    <t>Offerstatus</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>uploadphoto</t>
+  </si>
+  <si>
+    <t>workpass</t>
+  </si>
+  <si>
+    <t>Rolled out</t>
+  </si>
+  <si>
+    <t>kkl</t>
+  </si>
+  <si>
+    <t>kurnool</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>C:\Users\Helius\Downloads</t>
   </si>
 </sst>
 </file>
@@ -492,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A35B8B-2C9C-492F-98B2-ACF925388BA1}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -627,4 +658,57 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8A136B-7317-407C-B457-3575CBC442CD}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>